--- a/data/Spravochniki/Holidays.xlsx
+++ b/data/Spravochniki/Holidays.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\АЧ 2021\Программа\Исходные\1.2.3\7\win-x64\data\Spravochniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RAO_Project\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB63C8CA-0FB4-474C-B90C-42979BBAF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Выходные" sheetId="1" r:id="rId1"/>
+    <sheet name="Рабочие" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,7 +62,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,11 +339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -351,12 +353,195 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>45411</v>
+        <v>43885</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED014FEB-0D2D-4CD8-B4ED-CDADD2FBE1F2}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45654</v>
       </c>
     </row>
   </sheetData>
